--- a/EndlessRunnerRPG.xlsx
+++ b/EndlessRunnerRPG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programmers Related\AJ\unityProjects\1_GameDev_v20\EndlessRunnerRPG\endless-runnerGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\Unity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D8C3F9-8534-4C4E-921F-325A65969ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C37E5-BB2A-421D-882F-AF0DDA4A7355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ogólne" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>IDEA DESCRIPTION</t>
   </si>
@@ -315,12 +315,18 @@
   <si>
     <t>*Boss-&gt;</t>
   </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -375,12 +381,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -710,6 +710,25 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -732,34 +751,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,8 +994,8 @@
   </sheetPr>
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1004,12 +1004,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1034,12 +1034,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1064,12 +1064,12 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1094,10 +1094,10 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1122,10 +1122,10 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1150,10 +1150,10 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1234,12 +1234,12 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1342,8 +1342,12 @@
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1638,12 +1642,12 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1844,12 +1848,12 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2050,12 +2054,12 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2256,12 +2260,12 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -28887,7 +28891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD6CC5-F5E9-46A5-85BB-6C0DF9D8AEA7}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -28914,7 +28918,7 @@
       <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="11"/>
@@ -28942,298 +28946,298 @@
     </row>
     <row r="10" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="37" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="36" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="37" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="36" t="s">
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="37" t="s">
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="46" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="46" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46" t="s">
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S12" s="46" t="s">
+      <c r="S12" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="44"/>
-      <c r="U12" s="45"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="39" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="39" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="39" t="s">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="38" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="38" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="38" t="s">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="18"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="18"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="18"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="30"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="18"/>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="18"/>
     </row>
     <row r="23" spans="4:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29279,7 +29283,7 @@
       <c r="A2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="11"/>

--- a/EndlessRunnerRPG.xlsx
+++ b/EndlessRunnerRPG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\Unity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programmers Related\AJ\unityProjects\1_GameDev_v20\EndlessRunnerRPG\endless-runnerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C37E5-BB2A-421D-882F-AF0DDA4A7355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DBA606-A30B-4910-B6D3-6FE6A69A821C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>IDEA DESCRIPTION</t>
   </si>
@@ -994,8 +994,8 @@
   </sheetPr>
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1379,7 +1379,9 @@
         <v>15</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
